--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Inhbb-Acvr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Inhbb-Acvr1.xlsx
@@ -534,16 +534,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>3.345805333333333</v>
+        <v>0.2654603333333334</v>
       </c>
       <c r="H2">
-        <v>10.037416</v>
+        <v>0.796381</v>
       </c>
       <c r="I2">
-        <v>0.3489465220682754</v>
+        <v>0.04079010536687974</v>
       </c>
       <c r="J2">
-        <v>0.3489465220682754</v>
+        <v>0.04079010536687975</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.695610666666666</v>
+        <v>4.621579</v>
       </c>
       <c r="N2">
-        <v>14.086832</v>
+        <v>13.864737</v>
       </c>
       <c r="O2">
-        <v>0.1802066564018305</v>
+        <v>0.1778708528171788</v>
       </c>
       <c r="P2">
-        <v>0.1802066564018305</v>
+        <v>0.1778708528171788</v>
       </c>
       <c r="Q2">
-        <v>15.71059921179022</v>
+        <v>1.226845901866333</v>
       </c>
       <c r="R2">
-        <v>141.395392906112</v>
+        <v>11.041613116797</v>
       </c>
       <c r="S2">
-        <v>0.06288248600497147</v>
+        <v>0.007255370828109482</v>
       </c>
       <c r="T2">
-        <v>0.06288248600497147</v>
+        <v>0.007255370828109483</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>3.345805333333333</v>
+        <v>0.2654603333333334</v>
       </c>
       <c r="H3">
-        <v>10.037416</v>
+        <v>0.796381</v>
       </c>
       <c r="I3">
-        <v>0.3489465220682754</v>
+        <v>0.04079010536687974</v>
       </c>
       <c r="J3">
-        <v>0.3489465220682754</v>
+        <v>0.04079010536687975</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,25 +617,25 @@
         <v>15.51448033333333</v>
       </c>
       <c r="N3">
-        <v>46.54344099999999</v>
+        <v>46.543441</v>
       </c>
       <c r="O3">
-        <v>0.5954098039960916</v>
+        <v>0.5971062807549863</v>
       </c>
       <c r="P3">
-        <v>0.5954098039960916</v>
+        <v>0.5971062807549863</v>
       </c>
       <c r="Q3">
-        <v>51.90843104316177</v>
+        <v>4.118479120780111</v>
       </c>
       <c r="R3">
-        <v>467.1758793884559</v>
+        <v>37.066312087021</v>
       </c>
       <c r="S3">
-        <v>0.2077661803097897</v>
+        <v>0.02435602810722157</v>
       </c>
       <c r="T3">
-        <v>0.2077661803097897</v>
+        <v>0.02435602810722157</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>3.345805333333333</v>
+        <v>0.2654603333333334</v>
       </c>
       <c r="H4">
-        <v>10.037416</v>
+        <v>0.796381</v>
       </c>
       <c r="I4">
-        <v>0.3489465220682754</v>
+        <v>0.04079010536687974</v>
       </c>
       <c r="J4">
-        <v>0.3489465220682754</v>
+        <v>0.04079010536687975</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>17.540158</v>
       </c>
       <c r="O4">
-        <v>0.2243835396020779</v>
+        <v>0.2250228664278349</v>
       </c>
       <c r="P4">
-        <v>0.2243835396020779</v>
+        <v>0.2250228664278349</v>
       </c>
       <c r="Q4">
-        <v>19.56198472796978</v>
+        <v>1.552072063133111</v>
       </c>
       <c r="R4">
-        <v>176.057862551728</v>
+        <v>13.968648568198</v>
       </c>
       <c r="S4">
-        <v>0.07829785575351422</v>
+        <v>0.009178706431548694</v>
       </c>
       <c r="T4">
-        <v>0.07829785575351424</v>
+        <v>0.009178706431548696</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>16.440185</v>
       </c>
       <c r="I5">
-        <v>0.5715360783999617</v>
+        <v>0.8420553458721338</v>
       </c>
       <c r="J5">
-        <v>0.5715360783999618</v>
+        <v>0.8420553458721339</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.695610666666666</v>
+        <v>4.621579</v>
       </c>
       <c r="N5">
-        <v>14.086832</v>
+        <v>13.864737</v>
       </c>
       <c r="O5">
-        <v>0.1802066564018305</v>
+        <v>0.1778708528171788</v>
       </c>
       <c r="P5">
-        <v>0.1802066564018305</v>
+        <v>0.1778708528171788</v>
       </c>
       <c r="Q5">
-        <v>25.73223601599111</v>
+        <v>25.32653791737167</v>
       </c>
       <c r="R5">
-        <v>231.59012414392</v>
+        <v>227.938841256345</v>
       </c>
       <c r="S5">
-        <v>0.1029946057014716</v>
+        <v>0.1497771024895409</v>
       </c>
       <c r="T5">
-        <v>0.1029946057014716</v>
+        <v>0.1497771024895409</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>16.440185</v>
       </c>
       <c r="I6">
-        <v>0.5715360783999617</v>
+        <v>0.8420553458721338</v>
       </c>
       <c r="J6">
-        <v>0.5715360783999618</v>
+        <v>0.8420553458721339</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,25 +803,25 @@
         <v>15.51448033333333</v>
       </c>
       <c r="N6">
-        <v>46.54344099999999</v>
+        <v>46.543441</v>
       </c>
       <c r="O6">
-        <v>0.5954098039960916</v>
+        <v>0.5971062807549863</v>
       </c>
       <c r="P6">
-        <v>0.5954098039960916</v>
+        <v>0.5971062807549863</v>
       </c>
       <c r="Q6">
-        <v>85.02030895295388</v>
+        <v>85.0203089529539</v>
       </c>
       <c r="R6">
-        <v>765.1827805765848</v>
+        <v>765.1827805765851</v>
       </c>
       <c r="S6">
-        <v>0.340298184416816</v>
+        <v>0.5027965357635634</v>
       </c>
       <c r="T6">
-        <v>0.3402981844168161</v>
+        <v>0.5027965357635635</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>16.440185</v>
       </c>
       <c r="I7">
-        <v>0.5715360783999617</v>
+        <v>0.8420553458721338</v>
       </c>
       <c r="J7">
-        <v>0.5715360783999618</v>
+        <v>0.8420553458721339</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>17.540158</v>
       </c>
       <c r="O7">
-        <v>0.2243835396020779</v>
+        <v>0.2250228664278349</v>
       </c>
       <c r="P7">
-        <v>0.2243835396020779</v>
+        <v>0.2250228664278349</v>
       </c>
       <c r="Q7">
         <v>32.04038249435889</v>
@@ -880,10 +880,10 @@
         <v>288.36344244923</v>
       </c>
       <c r="S7">
-        <v>0.1282432882816741</v>
+        <v>0.1894817076190295</v>
       </c>
       <c r="T7">
-        <v>0.1282432882816741</v>
+        <v>0.1894817076190295</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.7624370000000001</v>
+        <v>0.7624369999999999</v>
       </c>
       <c r="H8">
         <v>2.287311</v>
       </c>
       <c r="I8">
-        <v>0.07951739953176287</v>
+        <v>0.1171545487609863</v>
       </c>
       <c r="J8">
-        <v>0.07951739953176287</v>
+        <v>0.1171545487609864</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.695610666666666</v>
+        <v>4.621579</v>
       </c>
       <c r="N8">
-        <v>14.086832</v>
+        <v>13.864737</v>
       </c>
       <c r="O8">
-        <v>0.1802066564018305</v>
+        <v>0.1778708528171788</v>
       </c>
       <c r="P8">
-        <v>0.1802066564018305</v>
+        <v>0.1778708528171788</v>
       </c>
       <c r="Q8">
-        <v>3.580107309861333</v>
+        <v>3.523662828022999</v>
       </c>
       <c r="R8">
-        <v>32.220965788752</v>
+        <v>31.712965452207</v>
       </c>
       <c r="S8">
-        <v>0.01432956469538747</v>
+        <v>0.0208383794995284</v>
       </c>
       <c r="T8">
-        <v>0.01432956469538747</v>
+        <v>0.0208383794995284</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.7624370000000001</v>
+        <v>0.7624369999999999</v>
       </c>
       <c r="H9">
         <v>2.287311</v>
       </c>
       <c r="I9">
-        <v>0.07951739953176287</v>
+        <v>0.1171545487609863</v>
       </c>
       <c r="J9">
-        <v>0.07951739953176287</v>
+        <v>0.1171545487609864</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,13 +989,13 @@
         <v>15.51448033333333</v>
       </c>
       <c r="N9">
-        <v>46.54344099999999</v>
+        <v>46.543441</v>
       </c>
       <c r="O9">
-        <v>0.5954098039960916</v>
+        <v>0.5971062807549863</v>
       </c>
       <c r="P9">
-        <v>0.5954098039960916</v>
+        <v>0.5971062807549863</v>
       </c>
       <c r="Q9">
         <v>11.82881384190567</v>
@@ -1004,10 +1004,10 @@
         <v>106.459324577151</v>
       </c>
       <c r="S9">
-        <v>0.04734543926948583</v>
+        <v>0.06995371688420124</v>
       </c>
       <c r="T9">
-        <v>0.04734543926948583</v>
+        <v>0.06995371688420125</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.7624370000000001</v>
+        <v>0.7624369999999999</v>
       </c>
       <c r="H10">
         <v>2.287311</v>
       </c>
       <c r="I10">
-        <v>0.07951739953176287</v>
+        <v>0.1171545487609863</v>
       </c>
       <c r="J10">
-        <v>0.07951739953176287</v>
+        <v>0.1171545487609864</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>17.540158</v>
       </c>
       <c r="O10">
-        <v>0.2243835396020779</v>
+        <v>0.2250228664278349</v>
       </c>
       <c r="P10">
-        <v>0.2243835396020779</v>
+        <v>0.2250228664278349</v>
       </c>
       <c r="Q10">
-        <v>4.457755148348667</v>
+        <v>4.457755148348665</v>
       </c>
       <c r="R10">
-        <v>40.119796335138</v>
+        <v>40.11979633513799</v>
       </c>
       <c r="S10">
-        <v>0.01784239556688957</v>
+        <v>0.02636245237725671</v>
       </c>
       <c r="T10">
-        <v>0.01784239556688957</v>
+        <v>0.02636245237725671</v>
       </c>
     </row>
   </sheetData>
